--- a/2013.10.22 测试结果.xlsx
+++ b/2013.10.22 测试结果.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>BUG跟踪表</t>
   </si>
@@ -273,32 +273,49 @@
     <t>点击“红外设备设置”菜单功能，软件有相应的设置界面</t>
   </si>
   <si>
-    <t>不需要设置，自动检测</t>
-  </si>
-  <si>
     <t>014</t>
+  </si>
+  <si>
+    <t>已经修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -306,48 +323,41 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="57"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -355,55 +365,58 @@
       <sz val="22"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="57"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="53"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="49"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -416,7 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,26 +441,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,6 +483,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -502,53 +526,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -564,161 +558,155 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
+    <cellStyle name="20% - 强调文字颜色 4" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="1"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="百分比" xfId="6" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="强调文字颜色 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1017,6 +1005,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1049,15 +1038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="6" width="9" style="7"/>
     <col min="7" max="7" width="30.5" style="7" customWidth="1"/>
@@ -1070,574 +1058,605 @@
     <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:14">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="27">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="49.5" spans="1:15">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="36">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="34">
         <v>41569</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="24">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="34">
+        <v>41569</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="33" spans="1:14">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12" t="s">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="24">
+      <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="42" t="s">
+      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L5" s="34">
         <v>41569</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="33" spans="1:14">
-      <c r="A5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12" t="s">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="24">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="42" t="s">
+      <c r="J6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L6" s="34">
         <v>41569</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="33" spans="1:14">
-      <c r="A6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12" t="s">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="60">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="34">
+        <v>41569</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="48">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="34">
+        <v>41569</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="24">
+      <c r="A9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="G9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="42" t="s">
+      <c r="J9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L9" s="36">
         <v>41569</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="82.5" spans="1:14">
-      <c r="A7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="12" t="s">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="24">
+      <c r="A10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="42" t="s">
+      <c r="G10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L10" s="38">
         <v>41569</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="66" spans="1:14">
-      <c r="A8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="12" t="s">
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="36">
+      <c r="A11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="40">
+        <v>41569</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="60">
+      <c r="A12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="40">
+        <v>41569</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="36">
+      <c r="A13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="42" t="s">
+      <c r="F13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L13" s="40">
         <v>41569</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="33" spans="1:14">
-      <c r="A9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="19" t="s">
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="24">
+      <c r="A14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="40">
+        <v>41569</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="24">
+      <c r="A15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="44" t="s">
+      <c r="G15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L15" s="42">
         <v>41569</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19" t="s">
-        <v>56</v>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="33" spans="1:14">
-      <c r="A10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="47">
+    <row r="16" spans="1:15">
+      <c r="A16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44">
         <v>41569</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="49.5" spans="1:14">
-      <c r="A11" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="49">
-        <v>41569</v>
-      </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="82.5" spans="1:14">
-      <c r="A12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="49">
-        <v>41569</v>
-      </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="49.5" spans="1:14">
-      <c r="A13" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="49">
-        <v>41569</v>
-      </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="33" spans="1:14">
-      <c r="A14" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="49">
-        <v>41569</v>
-      </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="49.5" spans="1:14">
-      <c r="A15" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="51">
-        <v>41569</v>
-      </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:14">
-      <c r="A16" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53">
-        <v>41569</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1645,6 +1664,7 @@
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B14"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K16">
       <formula1>"总是,有时,随机,没有试验,无法重复,不适用"</formula1>
@@ -1659,41 +1679,37 @@
       <formula1>"新特性,微不足道,文字错误,不合理或别扭,次要错误,严重错误,异常"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
